--- a/components.xlsx
+++ b/components.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName localSheetId="2" name="equipment">equipment!$A$1:$J$1</definedName>
     <definedName localSheetId="1" name="location">location!$A$1:$I$3</definedName>
-    <definedName localSheetId="0" name="building">building!$A$1:$E$2</definedName>
+    <definedName localSheetId="0" name="building">building!$A$1:$F$2</definedName>
     <definedName localSheetId="4" name="solution">solution!$A$1:$F$4</definedName>
   </definedNames>
   <calcPr/>
@@ -25,19 +25,19 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="G2">
+    <comment authorId="0" ref="H2">
       <text>
         <t xml:space="preserve">Danila Valko:
 stored consumption file name</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G3">
+    <comment authorId="0" ref="H3">
       <text>
         <t xml:space="preserve">Danila Valko:
 stored consumption file name</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G4">
+    <comment authorId="0" ref="H4">
       <text>
         <t xml:space="preserve">Danila Valko:
 stored consumption file name</t>
@@ -101,7 +101,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C1">
+    <comment authorId="0" ref="D1">
       <text>
         <t xml:space="preserve">Danila Valko:
 should be linked to 'building' column in buildings list</t>
@@ -118,11 +118,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
   <si>
     <t>uuid</t>
   </si>
   <si>
+    <t>_</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -421,9 +424,6 @@
   </si>
   <si>
     <t>timestamp</t>
-  </si>
-  <si>
-    <t>metrics</t>
   </si>
   <si>
     <t>config</t>
@@ -747,22 +747,23 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="5.0"/>
-    <col customWidth="1" min="2" max="2" width="25.57"/>
-    <col customWidth="1" min="3" max="3" width="67.0"/>
-    <col customWidth="1" min="4" max="4" width="9.14"/>
-    <col customWidth="1" min="5" max="5" width="8.0"/>
-    <col customWidth="1" min="6" max="6" width="21.43"/>
-    <col customWidth="1" min="7" max="7" width="23.29"/>
-    <col customWidth="1" min="8" max="8" width="10.71"/>
-    <col customWidth="1" min="9" max="9" width="12.57"/>
-    <col customWidth="1" min="10" max="26" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="2.14"/>
+    <col customWidth="1" min="3" max="3" width="25.57"/>
+    <col customWidth="1" min="4" max="4" width="67.0"/>
+    <col customWidth="1" min="5" max="5" width="9.14"/>
+    <col customWidth="1" min="6" max="6" width="8.0"/>
+    <col customWidth="1" min="7" max="7" width="21.43"/>
+    <col customWidth="1" min="8" max="8" width="23.29"/>
+    <col customWidth="1" min="9" max="9" width="10.71"/>
+    <col customWidth="1" min="10" max="10" width="12.57"/>
+    <col customWidth="1" min="11" max="27" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -774,7 +775,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -786,7 +787,9 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -803,12 +806,10 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -820,57 +821,60 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1"/>
@@ -1905,28 +1909,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1950,7 +1954,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5">
         <v>37.0</v>
@@ -1974,12 +1978,12 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5">
         <v>36.0</v>
@@ -2003,12 +2007,12 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5">
         <v>0.0</v>
@@ -2032,12 +2036,12 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5">
         <v>15.0</v>
@@ -2061,12 +2065,12 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5">
         <v>18.0</v>
@@ -2090,12 +2094,12 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5">
         <v>19.0</v>
@@ -2119,12 +2123,12 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5">
         <v>0.0</v>
@@ -2148,12 +2152,12 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5">
         <v>21.0</v>
@@ -2177,7 +2181,7 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -3209,31 +3213,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3254,10 +3258,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5">
         <v>1762.0</v>
@@ -3266,7 +3270,7 @@
         <v>1134.0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="5">
         <v>450.0</v>
@@ -3275,7 +3279,7 @@
         <v>110.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I2" s="5">
         <v>14.0</v>
@@ -3286,10 +3290,10 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5">
         <v>1755.0</v>
@@ -3298,7 +3302,7 @@
         <v>1038.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" s="5">
         <v>360.0</v>
@@ -3307,7 +3311,7 @@
         <v>199.0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3" s="5">
         <v>14.0</v>
@@ -3318,10 +3322,10 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5">
         <v>1719.0</v>
@@ -3330,7 +3334,7 @@
         <v>1140.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" s="5">
         <v>410.0</v>
@@ -3339,7 +3343,7 @@
         <v>100.0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I4" s="5">
         <v>14.0</v>
@@ -4378,22 +4382,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4417,10 +4421,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="12">
         <v>0.0</v>
@@ -4459,22 +4463,22 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="5">
         <v>1365.0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G3" s="5">
         <v>1.0</v>
@@ -4482,22 +4486,22 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="5">
         <v>949.9999999999999</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4" s="5">
         <v>1.0</v>
@@ -4505,22 +4509,22 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="5">
         <v>640.0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5" s="5">
         <v>1.0</v>
@@ -4528,22 +4532,22 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" s="5">
         <v>2350.0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" s="5">
         <v>1.0</v>
@@ -4551,22 +4555,22 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" s="5">
         <v>4100.0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" s="5">
         <v>1.0</v>
@@ -4574,22 +4578,22 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" s="5">
         <v>7450.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" s="5">
         <v>1.0</v>
@@ -4597,22 +4601,22 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" s="5">
         <v>9100.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9" s="5">
         <v>1.0</v>
@@ -4620,22 +4624,22 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" s="5">
         <v>10500.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G10" s="5">
         <v>1.0</v>
@@ -4643,22 +4647,22 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" s="5">
         <v>3800.0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G11" s="5">
         <v>1.0</v>
@@ -4666,22 +4670,22 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="5">
         <v>5350.0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G12" s="5">
         <v>1.0</v>
@@ -4689,22 +4693,22 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="5">
         <v>7140.0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G13" s="5">
         <v>1.0</v>
@@ -4712,22 +4716,22 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" s="5">
         <v>8450.0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" s="5">
         <v>1.0</v>
@@ -7711,9 +7715,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="5.0"/>
-    <col customWidth="1" min="2" max="2" width="10.57"/>
-    <col customWidth="1" min="3" max="3" width="13.14"/>
-    <col customWidth="1" min="4" max="4" width="7.57"/>
+    <col customWidth="1" min="2" max="2" width="2.14"/>
+    <col customWidth="1" min="3" max="3" width="10.57"/>
+    <col customWidth="1" min="4" max="4" width="13.14"/>
     <col customWidth="1" min="5" max="5" width="6.43"/>
     <col customWidth="1" min="6" max="6" width="19.86"/>
     <col customWidth="1" min="7" max="26" width="8.71"/>
@@ -7723,14 +7727,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>100</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>102</v>

--- a/components.xlsx
+++ b/components.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
   <si>
     <t>uuid</t>
   </si>
@@ -423,13 +423,16 @@
     <t>0.66</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>solutions_profile_key</t>
+  </si>
+  <si>
     <t>timestamp</t>
-  </si>
-  <si>
-    <t>config</t>
-  </si>
-  <si>
-    <t>solutions_profile_key</t>
   </si>
 </sst>
 </file>
@@ -7720,7 +7723,8 @@
     <col customWidth="1" min="4" max="4" width="13.14"/>
     <col customWidth="1" min="5" max="5" width="6.43"/>
     <col customWidth="1" min="6" max="6" width="19.86"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col customWidth="1" min="7" max="7" width="10.57"/>
+    <col customWidth="1" min="8" max="27" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -7730,7 +7734,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -7742,7 +7746,9 @@
       <c r="F1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -7762,6 +7768,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1"/>

--- a/components.xlsx
+++ b/components.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName localSheetId="2" name="equipment">equipment!$A$1:$J$1</definedName>
-    <definedName localSheetId="1" name="location">location!$A$1:$I$3</definedName>
+    <definedName localSheetId="1" name="location">location!$A$1:$J$3</definedName>
     <definedName localSheetId="0" name="building">building!$A$1:$F$2</definedName>
     <definedName localSheetId="4" name="solution">solution!$A$1:$F$4</definedName>
   </definedNames>
@@ -53,7 +53,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="I1">
+    <comment authorId="0" ref="J1">
       <text>
         <t xml:space="preserve">Danila Valko:
 should be linked to 'building' column in buildings list</t>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
   <si>
     <t>uuid</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>azimuth</t>
+  </si>
+  <si>
+    <t>flat</t>
   </si>
   <si>
     <t>size_Wm</t>
@@ -1898,13 +1901,14 @@
     <col customWidth="1" min="1" max="1" width="5.0"/>
     <col customWidth="1" min="2" max="2" width="5.86"/>
     <col customWidth="1" min="3" max="3" width="8.14"/>
-    <col customWidth="1" min="4" max="4" width="8.86"/>
-    <col customWidth="1" min="5" max="5" width="8.43"/>
-    <col customWidth="1" min="6" max="6" width="9.71"/>
-    <col customWidth="1" min="7" max="7" width="14.86"/>
-    <col customWidth="1" min="8" max="8" width="14.14"/>
-    <col customWidth="1" min="9" max="9" width="13.14"/>
-    <col customWidth="1" min="10" max="28" width="8.71"/>
+    <col customWidth="1" min="4" max="4" width="4.0"/>
+    <col customWidth="1" min="5" max="5" width="8.86"/>
+    <col customWidth="1" min="6" max="6" width="8.43"/>
+    <col customWidth="1" min="7" max="7" width="9.71"/>
+    <col customWidth="1" min="8" max="8" width="14.86"/>
+    <col customWidth="1" min="9" max="9" width="14.14"/>
+    <col customWidth="1" min="10" max="10" width="13.14"/>
+    <col customWidth="1" min="11" max="29" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1929,13 +1933,15 @@
       <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1954,10 +1960,11 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="5">
         <v>37.0</v>
@@ -1965,28 +1972,31 @@
       <c r="C2" s="5">
         <v>0.0</v>
       </c>
-      <c r="D2" s="6">
-        <v>10.0</v>
+      <c r="D2" s="5">
+        <v>0.0</v>
       </c>
       <c r="E2" s="6">
         <v>10.0</v>
       </c>
       <c r="F2" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G2" s="6">
         <v>612.0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>0.0</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>1.0</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5">
         <v>36.0</v>
@@ -1994,28 +2004,31 @@
       <c r="C3" s="5">
         <v>0.0</v>
       </c>
-      <c r="D3" s="6">
-        <v>10.0</v>
+      <c r="D3" s="5">
+        <v>0.0</v>
       </c>
       <c r="E3" s="6">
         <v>10.0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G3" s="5">
         <v>39.0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>0.0</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>1.0</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5">
         <v>0.0</v>
@@ -2023,28 +2036,31 @@
       <c r="C4" s="5">
         <v>0.0</v>
       </c>
-      <c r="D4" s="6">
-        <v>10.0</v>
+      <c r="D4" s="5">
+        <v>0.0</v>
       </c>
       <c r="E4" s="6">
         <v>10.0</v>
       </c>
       <c r="F4" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G4" s="6">
         <v>347.0</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>0.0</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>1.0</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5">
         <v>15.0</v>
@@ -2052,28 +2068,31 @@
       <c r="C5" s="5">
         <v>0.0</v>
       </c>
-      <c r="D5" s="6">
-        <v>10.0</v>
+      <c r="D5" s="5">
+        <v>0.0</v>
       </c>
       <c r="E5" s="6">
         <v>10.0</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G5" s="5">
         <v>215.0</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>0.0</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>1.0</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5">
         <v>18.0</v>
@@ -2081,28 +2100,31 @@
       <c r="C6" s="5">
         <v>0.0</v>
       </c>
-      <c r="D6" s="6">
-        <v>10.0</v>
+      <c r="D6" s="5">
+        <v>0.0</v>
       </c>
       <c r="E6" s="6">
         <v>10.0</v>
       </c>
       <c r="F6" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G6" s="6">
         <v>123.0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>0.0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>1.0</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="5">
         <v>19.0</v>
@@ -2110,28 +2132,31 @@
       <c r="C7" s="5">
         <v>0.0</v>
       </c>
-      <c r="D7" s="6">
-        <v>10.0</v>
+      <c r="D7" s="5">
+        <v>0.0</v>
       </c>
       <c r="E7" s="6">
         <v>10.0</v>
       </c>
       <c r="F7" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G7" s="6">
         <v>143.0</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>0.0</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>1.0</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5">
         <v>0.0</v>
@@ -2139,28 +2164,31 @@
       <c r="C8" s="5">
         <v>0.0</v>
       </c>
-      <c r="D8" s="6">
-        <v>10.0</v>
+      <c r="D8" s="5">
+        <v>0.0</v>
       </c>
       <c r="E8" s="6">
         <v>10.0</v>
       </c>
       <c r="F8" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G8" s="6">
         <v>70.0</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>0.0</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>1.0</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5">
         <v>21.0</v>
@@ -2168,22 +2196,25 @@
       <c r="C9" s="5">
         <v>0.0</v>
       </c>
-      <c r="D9" s="6">
-        <v>10.0</v>
+      <c r="D9" s="5">
+        <v>0.0</v>
       </c>
       <c r="E9" s="6">
         <v>10.0</v>
       </c>
       <c r="F9" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G9" s="6">
         <v>80.0</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>0.0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>1.0</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2197,6 +2228,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -3216,31 +3248,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3261,10 +3293,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5">
         <v>1762.0</v>
@@ -3273,7 +3305,7 @@
         <v>1134.0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="5">
         <v>450.0</v>
@@ -3282,7 +3314,7 @@
         <v>110.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" s="5">
         <v>14.0</v>
@@ -3293,10 +3325,10 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="5">
         <v>1755.0</v>
@@ -3305,7 +3337,7 @@
         <v>1038.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" s="5">
         <v>360.0</v>
@@ -3314,7 +3346,7 @@
         <v>199.0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" s="5">
         <v>14.0</v>
@@ -3325,10 +3357,10 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="5">
         <v>1719.0</v>
@@ -3337,7 +3369,7 @@
         <v>1140.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" s="5">
         <v>410.0</v>
@@ -3346,7 +3378,7 @@
         <v>100.0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I4" s="5">
         <v>14.0</v>
@@ -4385,22 +4417,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4424,10 +4456,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="12">
         <v>0.0</v>
@@ -4466,22 +4498,22 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" s="5">
         <v>1365.0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="5">
         <v>1.0</v>
@@ -4489,22 +4521,22 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="5">
         <v>949.9999999999999</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" s="5">
         <v>1.0</v>
@@ -4512,22 +4544,22 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" s="5">
         <v>640.0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" s="5">
         <v>1.0</v>
@@ -4535,22 +4567,22 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="5">
         <v>2350.0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" s="5">
         <v>1.0</v>
@@ -4558,22 +4590,22 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="5">
         <v>4100.0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" s="5">
         <v>1.0</v>
@@ -4581,22 +4613,22 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="5">
         <v>7450.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8" s="5">
         <v>1.0</v>
@@ -4604,22 +4636,22 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="5">
         <v>9100.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G9" s="5">
         <v>1.0</v>
@@ -4627,22 +4659,22 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="5">
         <v>10500.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G10" s="5">
         <v>1.0</v>
@@ -4650,22 +4682,22 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="5">
         <v>3800.0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G11" s="5">
         <v>1.0</v>
@@ -4673,22 +4705,22 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" s="5">
         <v>5350.0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G12" s="5">
         <v>1.0</v>
@@ -4696,22 +4728,22 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="5">
         <v>7140.0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G13" s="5">
         <v>1.0</v>
@@ -4719,22 +4751,22 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" s="5">
         <v>8450.0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G14" s="5">
         <v>1.0</v>
@@ -7735,19 +7767,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>

--- a/components.xlsx
+++ b/components.xlsx
@@ -189,7 +189,7 @@
     <t>Burgwedel</t>
   </si>
   <si>
-    <t>pumps</t>
+    <t>Kläranlage</t>
   </si>
   <si>
     <t>slope</t>
@@ -879,7 +879,7 @@
       <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
     </row>

--- a/components.xlsx
+++ b/components.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
   <si>
     <t>uuid</t>
   </si>
@@ -168,7 +168,7 @@
     <t>mook</t>
   </si>
   <si>
-    <t>G1</t>
+    <t>Wettmar</t>
   </si>
   <si>
     <t>b2</t>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Moorweg, 5, Burgwedel; Moorweg, 3, Burgwedel; Burgstrasse, 23, Burgwedel</t>
+  </si>
+  <si>
+    <t>Kleinburgwedel</t>
   </si>
   <si>
     <t>b3</t>
@@ -833,7 +836,7 @@
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -856,19 +859,19 @@
       <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -880,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1"/>
@@ -1916,31 +1919,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1964,7 +1967,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5">
         <v>37.0</v>
@@ -1996,7 +1999,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5">
         <v>36.0</v>
@@ -2028,7 +2031,7 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="5">
         <v>0.0</v>
@@ -2060,7 +2063,7 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5">
         <v>15.0</v>
@@ -2092,7 +2095,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5">
         <v>18.0</v>
@@ -2119,12 +2122,12 @@
         <v>1.0</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5">
         <v>19.0</v>
@@ -2151,12 +2154,12 @@
         <v>1.0</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5">
         <v>0.0</v>
@@ -2183,12 +2186,12 @@
         <v>1.0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5">
         <v>21.0</v>
@@ -2215,7 +2218,7 @@
         <v>1.0</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -3248,31 +3251,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3293,10 +3296,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5">
         <v>1762.0</v>
@@ -3305,7 +3308,7 @@
         <v>1134.0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="5">
         <v>450.0</v>
@@ -3314,7 +3317,7 @@
         <v>110.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I2" s="5">
         <v>14.0</v>
@@ -3325,10 +3328,10 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5">
         <v>1755.0</v>
@@ -3337,7 +3340,7 @@
         <v>1038.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" s="5">
         <v>360.0</v>
@@ -3346,7 +3349,7 @@
         <v>199.0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" s="5">
         <v>14.0</v>
@@ -3357,10 +3360,10 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="5">
         <v>1719.0</v>
@@ -3369,7 +3372,7 @@
         <v>1140.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" s="5">
         <v>410.0</v>
@@ -3378,7 +3381,7 @@
         <v>100.0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I4" s="5">
         <v>14.0</v>
@@ -4417,22 +4420,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4456,10 +4459,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="12">
         <v>0.0</v>
@@ -4498,22 +4501,22 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="5">
         <v>1365.0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G3" s="5">
         <v>1.0</v>
@@ -4521,22 +4524,22 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="5">
         <v>949.9999999999999</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" s="5">
         <v>1.0</v>
@@ -4544,22 +4547,22 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" s="5">
         <v>640.0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G5" s="5">
         <v>1.0</v>
@@ -4567,22 +4570,22 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5">
         <v>2350.0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" s="5">
         <v>1.0</v>
@@ -4590,22 +4593,22 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" s="5">
         <v>4100.0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" s="5">
         <v>1.0</v>
@@ -4613,22 +4616,22 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" s="5">
         <v>7450.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G8" s="5">
         <v>1.0</v>
@@ -4636,22 +4639,22 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" s="5">
         <v>9100.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G9" s="5">
         <v>1.0</v>
@@ -4659,22 +4662,22 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" s="5">
         <v>10500.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G10" s="5">
         <v>1.0</v>
@@ -4682,22 +4685,22 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="5">
         <v>3800.0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G11" s="5">
         <v>1.0</v>
@@ -4705,22 +4708,22 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" s="5">
         <v>5350.0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G12" s="5">
         <v>1.0</v>
@@ -4728,22 +4731,22 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" s="5">
         <v>7140.0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G13" s="5">
         <v>1.0</v>
@@ -4751,22 +4754,22 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" s="5">
         <v>8450.0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G14" s="5">
         <v>1.0</v>
@@ -7767,19 +7770,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>

--- a/components.xlsx
+++ b/components.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName localSheetId="2" name="equipment">equipment!$A$1:$J$1</definedName>
-    <definedName localSheetId="1" name="location">location!$A$1:$J$3</definedName>
+    <definedName localSheetId="1" name="location">location!$A$1:$J$1</definedName>
     <definedName localSheetId="0" name="building">building!$A$1:$F$2</definedName>
     <definedName localSheetId="4" name="solution">solution!$A$1:$F$4</definedName>
   </definedNames>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="128">
   <si>
     <t>uuid</t>
   </si>
@@ -222,28 +222,91 @@
     <t>building_uuid</t>
   </si>
   <si>
-    <t>l1</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>l3</t>
-  </si>
-  <si>
-    <t>l4</t>
-  </si>
-  <si>
-    <t>l5</t>
-  </si>
-  <si>
-    <t>l6</t>
-  </si>
-  <si>
-    <t>l7</t>
-  </si>
-  <si>
-    <t>l8</t>
+    <t>l00</t>
+  </si>
+  <si>
+    <t>l01</t>
+  </si>
+  <si>
+    <t>l02</t>
+  </si>
+  <si>
+    <t>l03</t>
+  </si>
+  <si>
+    <t>l04</t>
+  </si>
+  <si>
+    <t>l05</t>
+  </si>
+  <si>
+    <t>l06</t>
+  </si>
+  <si>
+    <t>l07</t>
+  </si>
+  <si>
+    <t>l08</t>
+  </si>
+  <si>
+    <t>l09</t>
+  </si>
+  <si>
+    <t>l10</t>
+  </si>
+  <si>
+    <t>l11</t>
+  </si>
+  <si>
+    <t>l12</t>
+  </si>
+  <si>
+    <t>l13</t>
+  </si>
+  <si>
+    <t>l14</t>
+  </si>
+  <si>
+    <t>l21</t>
+  </si>
+  <si>
+    <t>l22</t>
+  </si>
+  <si>
+    <t>l23</t>
+  </si>
+  <si>
+    <t>l24</t>
+  </si>
+  <si>
+    <t>l31</t>
+  </si>
+  <si>
+    <t>l32</t>
+  </si>
+  <si>
+    <t>l33</t>
+  </si>
+  <si>
+    <t>l34</t>
+  </si>
+  <si>
+    <t>l35</t>
+  </si>
+  <si>
+    <t>l36</t>
+  </si>
+  <si>
+    <t>l37</t>
+  </si>
+  <si>
+    <t>l38</t>
+  </si>
+  <si>
+    <t>l39</t>
+  </si>
+  <si>
+    <t>l40</t>
   </si>
   <si>
     <t>type</t>
@@ -1970,13 +2033,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="5">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="5">
         <v>0.0</v>
       </c>
       <c r="D2" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" s="6">
         <v>10.0</v>
@@ -1985,30 +2048,30 @@
         <v>10.0</v>
       </c>
       <c r="G2" s="6">
-        <v>612.0</v>
+        <v>134.0</v>
       </c>
       <c r="H2" s="6">
         <v>0.0</v>
       </c>
       <c r="I2" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="5">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" s="5">
         <v>0.0</v>
       </c>
       <c r="D3" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" s="6">
         <v>10.0</v>
@@ -2016,21 +2079,21 @@
       <c r="F3" s="6">
         <v>10.0</v>
       </c>
-      <c r="G3" s="5">
-        <v>39.0</v>
+      <c r="G3" s="6">
+        <v>74.0</v>
       </c>
       <c r="H3" s="6">
         <v>0.0</v>
       </c>
       <c r="I3" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="5">
@@ -2040,7 +2103,7 @@
         <v>0.0</v>
       </c>
       <c r="D4" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" s="6">
         <v>10.0</v>
@@ -2049,27 +2112,27 @@
         <v>10.0</v>
       </c>
       <c r="G4" s="6">
-        <v>347.0</v>
+        <v>143.0</v>
       </c>
       <c r="H4" s="6">
         <v>0.0</v>
       </c>
       <c r="I4" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="5">
-        <v>15.0</v>
+        <v>38.0</v>
       </c>
       <c r="C5" s="5">
-        <v>0.0</v>
+        <v>-90.0</v>
       </c>
       <c r="D5" s="5">
         <v>0.0</v>
@@ -2080,25 +2143,25 @@
       <c r="F5" s="6">
         <v>10.0</v>
       </c>
-      <c r="G5" s="5">
-        <v>215.0</v>
+      <c r="G5" s="6">
+        <v>27.0</v>
       </c>
       <c r="H5" s="6">
         <v>0.0</v>
       </c>
       <c r="I5" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="5">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="C6" s="5">
         <v>0.0</v>
@@ -2113,27 +2176,27 @@
         <v>10.0</v>
       </c>
       <c r="G6" s="6">
-        <v>123.0</v>
+        <v>114.0</v>
       </c>
       <c r="H6" s="6">
         <v>0.0</v>
       </c>
       <c r="I6" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="5">
-        <v>19.0</v>
+        <v>37.0</v>
       </c>
       <c r="C7" s="5">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="D7" s="5">
         <v>0.0</v>
@@ -2145,27 +2208,27 @@
         <v>10.0</v>
       </c>
       <c r="G7" s="6">
-        <v>143.0</v>
+        <v>225.0</v>
       </c>
       <c r="H7" s="6">
         <v>0.0</v>
       </c>
       <c r="I7" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="5">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="C8" s="5">
-        <v>0.0</v>
+        <v>-90.0</v>
       </c>
       <c r="D8" s="5">
         <v>0.0</v>
@@ -2177,27 +2240,27 @@
         <v>10.0</v>
       </c>
       <c r="G8" s="6">
-        <v>70.0</v>
+        <v>182.0</v>
       </c>
       <c r="H8" s="6">
         <v>0.0</v>
       </c>
       <c r="I8" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="5">
-        <v>21.0</v>
+        <v>36.0</v>
       </c>
       <c r="C9" s="5">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="D9" s="5">
         <v>0.0</v>
@@ -2209,50 +2272,690 @@
         <v>10.0</v>
       </c>
       <c r="G9" s="6">
-        <v>80.0</v>
+        <v>39.0</v>
       </c>
       <c r="H9" s="6">
         <v>0.0</v>
       </c>
       <c r="I9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="5">
+        <v>37.0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>51.0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5">
+        <v>37.0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>71.0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5">
+        <v>37.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>31.0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5">
+        <v>37.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-90.0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>134.0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="5">
         <v>1.0</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="E14" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>33.0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5">
+        <v>38.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>128.0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>-90.0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>77.0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>43.0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>203.0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>135.0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>41.0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>-45.0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>39.0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>19.0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>51.0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>135.0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>74.0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>-45.0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>69.0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>135.0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>93.0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>-45.0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>84.0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="31" ht="14.25" customHeight="1"/>
     <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
@@ -3205,15 +3908,6 @@
     <row r="980" ht="14.25" customHeight="1"/>
     <row r="981" ht="14.25" customHeight="1"/>
     <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -3251,31 +3945,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3296,10 +3990,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C2" s="5">
         <v>1762.0</v>
@@ -3308,7 +4002,7 @@
         <v>1134.0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F2" s="5">
         <v>450.0</v>
@@ -3317,7 +4011,7 @@
         <v>110.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I2" s="5">
         <v>14.0</v>
@@ -3328,10 +4022,10 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C3" s="5">
         <v>1755.0</v>
@@ -3340,7 +4034,7 @@
         <v>1038.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F3" s="5">
         <v>360.0</v>
@@ -3349,7 +4043,7 @@
         <v>199.0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="I3" s="5">
         <v>14.0</v>
@@ -3360,10 +4054,10 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C4" s="5">
         <v>1719.0</v>
@@ -3372,7 +4066,7 @@
         <v>1140.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F4" s="5">
         <v>410.0</v>
@@ -3381,7 +4075,7 @@
         <v>100.0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I4" s="5">
         <v>14.0</v>
@@ -4420,22 +5114,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4459,10 +5153,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C2" s="12">
         <v>0.0</v>
@@ -4501,22 +5195,22 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E3" s="5">
         <v>1365.0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G3" s="5">
         <v>1.0</v>
@@ -4524,22 +5218,22 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E4" s="5">
         <v>949.9999999999999</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="G4" s="5">
         <v>1.0</v>
@@ -4547,22 +5241,22 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E5" s="5">
         <v>640.0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="G5" s="5">
         <v>1.0</v>
@@ -4570,22 +5264,22 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E6" s="5">
         <v>2350.0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G6" s="5">
         <v>1.0</v>
@@ -4593,22 +5287,22 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E7" s="5">
         <v>4100.0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="G7" s="5">
         <v>1.0</v>
@@ -4616,22 +5310,22 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E8" s="5">
         <v>7450.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="G8" s="5">
         <v>1.0</v>
@@ -4639,22 +5333,22 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E9" s="5">
         <v>9100.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="G9" s="5">
         <v>1.0</v>
@@ -4662,22 +5356,22 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="C10" s="13" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E10" s="5">
         <v>10500.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="G10" s="5">
         <v>1.0</v>
@@ -4685,22 +5379,22 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E11" s="5">
         <v>3800.0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G11" s="5">
         <v>1.0</v>
@@ -4708,22 +5402,22 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E12" s="5">
         <v>5350.0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="G12" s="5">
         <v>1.0</v>
@@ -4731,22 +5425,22 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E13" s="5">
         <v>7140.0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="G13" s="5">
         <v>1.0</v>
@@ -4754,22 +5448,22 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E14" s="5">
         <v>8450.0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="G14" s="5">
         <v>1.0</v>
@@ -7770,19 +8464,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>

--- a/components.xlsx
+++ b/components.xlsx
@@ -13,7 +13,7 @@
     <definedName localSheetId="2" name="equipment">equipment!$A$1:$J$1</definedName>
     <definedName localSheetId="1" name="location">location!$A$1:$J$1</definedName>
     <definedName localSheetId="0" name="building">building!$A$1:$F$2</definedName>
-    <definedName localSheetId="4" name="solution">solution!$A$1:$F$4</definedName>
+    <definedName localSheetId="4" name="solution">solution!$A$1:$G$4</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -107,7 +107,7 @@
 should be linked to 'building' column in buildings list</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F1">
+    <comment authorId="0" ref="G1">
       <text>
         <t xml:space="preserve">Danila Valko:
 short description of the solution, contains uuid of equipment and amount</t>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="129">
   <si>
     <t>uuid</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>solution</t>
   </si>
   <si>
     <t>config</t>
@@ -8450,10 +8453,11 @@
     <col customWidth="1" min="2" max="2" width="2.14"/>
     <col customWidth="1" min="3" max="3" width="10.57"/>
     <col customWidth="1" min="4" max="4" width="13.14"/>
-    <col customWidth="1" min="5" max="5" width="6.43"/>
-    <col customWidth="1" min="6" max="6" width="19.86"/>
-    <col customWidth="1" min="7" max="7" width="10.57"/>
-    <col customWidth="1" min="8" max="27" width="8.71"/>
+    <col customWidth="1" min="5" max="5" width="10.57"/>
+    <col customWidth="1" min="6" max="6" width="6.43"/>
+    <col customWidth="1" min="7" max="7" width="19.86"/>
+    <col customWidth="1" min="8" max="8" width="10.57"/>
+    <col customWidth="1" min="9" max="28" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -8475,10 +8479,12 @@
       <c r="F1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -8498,6 +8504,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1"/>
